--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time_Join.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time_Join.xlsx
@@ -25,13 +25,13 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>rSDPgPDnAng,rSDPgPDnAng,rSDPgPDnAng,MyP82uxsHZA,Q-8I-uMUMYA,CSgYEXM_Ibk,Q-8I-uMUMYA,Fj_kJ5HEnFc,Q-8I-uMUMYA,V3nuv0iyTvw,V3nuv0iyTvw,V3nuv0iyTvw,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,gKvIVk9KP2c,gKvIVk9KP2c,gKvIVk9KP2c,P9u2BkJamhg,P9u2BkJamhg,P9u2BkJamhg,EmxRrMXp3UY,EmxRrMXp3UY,EmxRrMXp3UY,v1tjz6l7TGQ,v1tjz6l7TGQ,v1tjz6l7TGQ,KFkJCia8L5M,KFkJCia8L5M,KFkJCia8L5M,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,nj83zeeJXQo,nj83zeeJXQo,nj83zeeJXQo,B14RDQm2hA0,B14RDQm2hA0,B14RDQm2hA0,XhcjYIknnfA,XhcjYIknnfA,XhcjYIknnfA,AZOUZt2Yb7U,AZOUZt2Yb7U,AZOUZt2Yb7U,A_389nSbVp4,A_389nSbVp4,A_389nSbVp4,SZMF_q6XiS4,SZMF_q6XiS4,SZMF_q6XiS4,50lMvP74B68,50lMvP74B68,50lMvP74B68,xVDSqJsyOds,xVDSqJsyOds,xVDSqJsyOds,n9fAHHDYIEU,n9fAHHDYIEU,n9fAHHDYIEU,GP9vbMkEKdI,GP9vbMkEKdI,GP9vbMkEKdI,IlIhJwle6T0,IlIhJwle6T0,IlIhJwle6T0,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,owL0zbTlyjA,owL0zbTlyjA,owL0zbTlyjA,43CNzte_Alw,43CNzte_Alw,43CNzte_Alw,v1tjz6l7TGQ,v1tjz6l7TGQ,v1tjz6l7TGQ,UDitOaNhlhE,UDitOaNhlhE,UDitOaNhlhE,hXfIsonV2WY,hXfIsonV2WY,hXfIsonV2WY,ut075iBolYA,ut075iBolYA,ut075iBolYA,DFt2Xg62ZG8,DFt2Xg62ZG8,DFt2Xg62ZG8,UMIzDtDmbys,UMIzDtDmbys,UMIzDtDmbys,KJqyv4_Uaqo,KJqyv4_Uaqo,KJqyv4_Uaqo,UbIX71sXnSY,UbIX71sXnSY,UbIX71sXnSY,cOm7mYpVlOk,cOm7mYpVlOk,cOm7mYpVlOk,fFvRj3XYH_Y,fFvRj3XYH_Y,fFvRj3XYH_Y,zdicxqAR9Do,zdicxqAR9Do,zdicxqAR9Do,MDTiXg_n9VQ,MDTiXg_n9VQ,MDTiXg_n9VQ,HcMjXKOt2g0,HcMjXKOt2g0,HcMjXKOt2g0,cHlx3vmSIVY,cHlx3vmSIVY,cHlx3vmSIVY,k_hgBdVFeEg,k_hgBdVFeEg,k_hgBdVFeEg,wehip3eUEi4,wehip3eUEi4,wehip3eUEi4,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,ID9ZhTdjnMw,ID9ZhTdjnMw,ID9ZhTdjnMw,KFlWdjC9rrg,KFlWdjC9rrg,KFlWdjC9rrg,hXMn1yLeCzU,hXMn1yLeCzU,hXMn1yLeCzU,n49WNtcDAMo,n49WNtcDAMo,n49WNtcDAMo,MNCyjl4jaxY,MNCyjl4jaxY,MNCyjl4jaxY,n3pj9BQvAo0,n3pj9BQvAo0,n3pj9BQvAo0,ut075iBolYA,ut075iBolYA,ut075iBolYA,D41NCkMkI2o,D41NCkMkI2o,D41NCkMkI2o,owL0zbTlyjA,owL0zbTlyjA,owL0zbTlyjA,gfHCLhvRPhk,gfHCLhvRPhk,gfHCLhvRPhk,WlJ12LESGP0,WlJ12LESGP0,WlJ12LESGP0,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,t0zfyLmzcy4,t0zfyLmzcy4,t0zfyLmzcy4,1idPrF17UP0,1idPrF17UP0,1idPrF17UP0,xaVq77GBFfI,xaVq77GBFfI,xaVq77GBFfI,brafDNe5sbU,brafDNe5sbU,brafDNe5sbU,P2rFpOB6ZKI,P2rFpOB6ZKI,P2rFpOB6ZKI,9A0B2_rSCVk,9A0B2_rSCVk,9A0B2_rSCVk,tQHd4ihEmyE,tQHd4ihEmyE,tQHd4ihEmyE,l_1T3uIi4sc,l_1T3uIi4sc,l_1T3uIi4sc,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,5Xw_0BqK8so,5Xw_0BqK8so,5Xw_0BqK8so,DniD4L9cACc,DniD4L9cACc,DniD4L9cACc,xm7zPToRjmc,xm7zPToRjmc,xm7zPToRjmc,hqO1gfNtlbE,hqO1gfNtlbE,hqO1gfNtlbE,gFA9Q_RrOVo,gFA9Q_RrOVo,gFA9Q_RrOVo,dQ2jS_36SEk,dQ2jS_36SEk,dQ2jS_36SEk,dKulgkMlEqY,dKulgkMlEqY,dKulgkMlEqY,Ww0_UKxDHsk,Ww0_UKxDHsk,Ww0_UKxDHsk,_MvIkjbdR0I,_MvIkjbdR0I,_MvIkjbdR0I,EiyFf3Ip18E,EiyFf3Ip18E,EiyFf3Ip18E,kZSGion29eo,kZSGion29eo,kZSGion29eo,MO_UWWsLa1g,MO_UWWsLa1g,MO_UWWsLa1g,UZc9oP8_iag,UZc9oP8_iag,UZc9oP8_iag,Czzlzp426zw,Czzlzp426zw,Czzlzp426zw,P9u2BkJamhg,P9u2BkJamhg,P9u2BkJamhg,cvSgupiizZ0,cvSgupiizZ0,cvSgupiizZ0,P9u2BkJamhg,P9u2BkJamhg,P9u2BkJamhg,xQjhffvoX2A,xQjhffvoX2A,xQjhffvoX2A,xktk70mLRyE,xktk70mLRyE,xktk70mLRyE,0FNEr8hjojw,0FNEr8hjojw,0FNEr8hjojw,vwUaEiSxeko,vwUaEiSxeko,vwUaEiSxeko,UbIX71sXnSY,UbIX71sXnSY,UbIX71sXnSY,OKmXet1mGoY,OKmXet1mGoY,OKmXet1mGoY,x3eXs9f3rLA,x3eXs9f3rLA,x3eXs9f3rLA,h7ZdHOFo4WU,h7ZdHOFo4WU,h7ZdHOFo4WU,fPwmQ8j4nbM,fPwmQ8j4nbM,fPwmQ8j4nbM,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,1JRauSMWBww,1JRauSMWBww,1JRauSMWBww,wgkOyeNYbII,wgkOyeNYbII,wgkOyeNYbII,H8AGEATmt8g,H8AGEATmt8g,H8AGEATmt8g,RweDuFPfqAc,RweDuFPfqAc,RweDuFPfqAc,F18XLVP7qmA,F18XLVP7qmA,F18XLVP7qmA,7Y8WyNm70Pg,7Y8WyNm70Pg,7Y8WyNm70Pg,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,UiKlnzbO2Dw,UiKlnzbO2Dw,UiKlnzbO2Dw,BMBQ2wWlnsM,BMBQ2wWlnsM,BMBQ2wWlnsM,b57L9dpq0Q4,b57L9dpq0Q4,b57L9dpq0Q4,FtX0SOorrFI,FtX0SOorrFI,FtX0SOorrFI,DJks2ofdZ34,DJks2ofdZ34,DJks2ofdZ34,loL9z89lf28,loL9z89lf28,loL9z89lf28,ADgBtBV3dIw,ADgBtBV3dIw,ADgBtBV3dIw,olV0Z7BJ3XE,olV0Z7BJ3XE,olV0Z7BJ3XE,wXPMglvtwJE,wXPMglvtwJE,wXPMglvtwJE,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,HbIMsGmubzw,HbIMsGmubzw,HbIMsGmubzw,zzMPkxdShDQ,zzMPkxdShDQ,zzMPkxdShDQ,jP5RIermNno,jP5RIermNno,jP5RIermNno,A32ExtiKRgo,A32ExtiKRgo,A32ExtiKRgo,BmsELeYiOf4,BmsELeYiOf4,BmsELeYiOf4,bXJsYZRGyzc,bXJsYZRGyzc,bXJsYZRGyzc,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,CSgYEXM_Ibk,CSgYEXM_Ibk,CSgYEXM_Ibk,MNCyjl4jaxY,MNCyjl4jaxY,MNCyjl4jaxY,nnyudu4fmEU,nnyudu4fmEU,nnyudu4fmEU,fpggPWKYMJ0,fpggPWKYMJ0,fpggPWKYMJ0,WDXy9tn1_Qg,WDXy9tn1_Qg,WDXy9tn1_Qg,GpNF_H2a6gA,GpNF_H2a6gA,GpNF_H2a6gA,MFkW633G9_E,MFkW633G9_E,MFkW633G9_E,EIRsVMg5n3M,EIRsVMg5n3M,EIRsVMg5n3M,ytOEchLsaeA,ytOEchLsaeA,ytOEchLsaeA,hx_YcOUrtPk,hx_YcOUrtPk,hx_YcOUrtPk,fhJr3Q3QHtM,fhJr3Q3QHtM,fhJr3Q3QHtM,MErTc6oiqyo,MErTc6oiqyo,MErTc6oiqyo,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,iCbxsBnJoEA,iCbxsBnJoEA,iCbxsBnJoEA,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,EnSZyvxgPqA,EnSZyvxgPqA,EnSZyvxgPqA,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,TiRTpWN3St4,TiRTpWN3St4,TiRTpWN3St4,CuanBtqTHVQ,CuanBtqTHVQ,CuanBtqTHVQ,c5psoZ_Jasw,c5psoZ_Jasw,c5psoZ_Jasw,We_B3W2hn6U,We_B3W2hn6U,We_B3W2hn6U,8Cbw__mjGFM,8Cbw__mjGFM,8Cbw__mjGFM,mVW3vTXzixc,mVW3vTXzixc,mVW3vTXzixc,5qnv4AbCTFg,5qnv4AbCTFg,5qnv4AbCTFg,kZhcEoxOMHY,kZhcEoxOMHY,kZhcEoxOMHY,M7ROOKqquqs,M7ROOKqquqs,M7ROOKqquqs,Gokx4ZpGRC0,Gokx4ZpGRC0,Gokx4ZpGRC0,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,wcmzSWj8ZNM,wcmzSWj8ZNM,wcmzSWj8ZNM,8fiRIUgu_TI,8fiRIUgu_TI,8fiRIUgu_TI,tQHd4ihEmyE,tQHd4ihEmyE,tQHd4ihEmyE,h7ZdHOFo4WU,h7ZdHOFo4WU,h7ZdHOFo4WU,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,JhxM6ufSS2k,JhxM6ufSS2k,JhxM6ufSS2k,0FNEr8hjojw,0FNEr8hjojw,0FNEr8hjojw,YP6bP50XDdY,YP6bP50XDdY,YP6bP50XDdY,v1tjz6l7TGQ,v1tjz6l7TGQ,v1tjz6l7TGQ,fLdoB7dHres,fLdoB7dHres,fLdoB7dHres,JwPfmMTxNIw,JwPfmMTxNIw,JwPfmMTxNIw,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,O_O6Mx732h4,O_O6Mx732h4,O_O6Mx732h4,gaiF6DSKlC0,gaiF6DSKlC0,gaiF6DSKlC0,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,D4hOqM6VeS0,D4hOqM6VeS0,D4hOqM6VeS0,hXfIsonV2WY,hXfIsonV2WY,hXfIsonV2WY,OC_RksWx3Tg,OC_RksWx3Tg,OC_RksWx3Tg,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,D9EOuLkiTcA,D9EOuLkiTcA,D9EOuLkiTcA,hfOvZPS0Jkk,hfOvZPS0Jkk,hfOvZPS0Jkk,RHT10hMwKMY,RHT10hMwKMY,RHT10hMwKMY,TYYmxNetOPg,TYYmxNetOPg,TYYmxNetOPg,dcTzXz5zsLE,dcTzXz5zsLE,dcTzXz5zsLE,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,5v4Bbu8sXyM,5v4Bbu8sXyM,5v4Bbu8sXyM,EWevHFe665Y,EWevHFe665Y,EWevHFe665Y,vaIyuymVTi0,vaIyuymVTi0,vaIyuymVTi0,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,pI3J1BDHkC4,pI3J1BDHkC4,pI3J1BDHkC4,Vk5Ao7VwPyc,Vk5Ao7VwPyc,Vk5Ao7VwPyc,KfHba2SCeQI,KfHba2SCeQI,KfHba2SCeQI,v1tjz6l7TGQ,v1tjz6l7TGQ,v1tjz6l7TGQ,HRSxp95A36k,HRSxp95A36k,HRSxp95A36k,b60UWbsIbDA,b60UWbsIbDA,b60UWbsIbDA,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,dVZY9mSDRu8,dVZY9mSDRu8,dVZY9mSDRu8,w0kszmvMNCo,w0kszmvMNCo,w0kszmvMNCo,cxsbVA2mtsI,cxsbVA2mtsI,cxsbVA2mtsI,IzFgJ3ujx3U,IzFgJ3ujx3U,IzFgJ3ujx3U,hx_YcOUrtPk,hx_YcOUrtPk,hx_YcOUrtPk,HX0RPxVzxfY,HX0RPxVzxfY,HX0RPxVzxfY,S9LKeZ7AxSk,S9LKeZ7AxSk,S9LKeZ7AxSk,IlIhJwle6T0,IlIhJwle6T0,IlIhJwle6T0,dKulgkMlEqY,dKulgkMlEqY,dKulgkMlEqY,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,jP5RIermNno,jP5RIermNno,jP5RIermNno,qFmXQ000zP0,qFmXQ000zP0,qFmXQ000zP0,HSd0_pVIFJ8,HSd0_pVIFJ8,HSd0_pVIFJ8,3fAvv1RgbUQ,3fAvv1RgbUQ,3fAvv1RgbUQ,zmvPgBfIQns,zmvPgBfIQns,zmvPgBfIQns,WB2jYe9y_Lk,WB2jYe9y_Lk,WB2jYe9y_Lk,nnIUwoysEfw,nnIUwoysEfw,nnIUwoysEfw,yxZatelPeNo,yxZatelPeNo,yxZatelPeNo,MS8O5tnezh4,MS8O5tnezh4,MS8O5tnezh4,2wUr89VUWdc,2wUr89VUWdc,2wUr89VUWdc,nTzWwegwMEU,nTzWwegwMEU,nTzWwegwMEU,8Cbw__mjGFM,8Cbw__mjGFM,8Cbw__mjGFM,m4g57DZtftQ,m4g57DZtftQ,m4g57DZtftQ,ZAtYUq0JR8Q,ZAtYUq0JR8Q,ZAtYUq0JR8Q,MtPxtHKn0CQ,MtPxtHKn0CQ,MtPxtHKn0CQ,IkZi2LmR_4c,IkZi2LmR_4c,IkZi2LmR_4c,P2rFpOB6ZKI,P2rFpOB6ZKI,P2rFpOB6ZKI,UbIX71sXnSY,UbIX71sXnSY,UbIX71sXnSY,uuv1RPvM3Fk,uuv1RPvM3Fk,uuv1RPvM3Fk,STt_8BbhnJI,STt_8BbhnJI,STt_8BbhnJI,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,dOoHI5KeaHE,dOoHI5KeaHE,dOoHI5KeaHE,wA__k9WE3zI,wA__k9WE3zI,wA__k9WE3zI,gaiF6DSKlC0,gaiF6DSKlC0,gaiF6DSKlC0,WlJ12LESGP0,WlJ12LESGP0,WlJ12LESGP0,aJlmQ6FxG_I,aJlmQ6FxG_I,aJlmQ6FxG_I,q7KSoirGDKI,q7KSoirGDKI,q7KSoirGDKI,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,HPPksMDrt5w,HPPksMDrt5w,HPPksMDrt5w,w7wD0IPQqhg,w7wD0IPQqhg,w7wD0IPQqhg,yxZatelPeNo,yxZatelPeNo,yxZatelPeNo,PMk6cys0bhE,PMk6cys0bhE,PMk6cys0bhE,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,pUX6xgFKc94,pUX6xgFKc94,pUX6xgFKc94,Qn1EZXHfBM0,Qn1EZXHfBM0,Qn1EZXHfBM0,MGkBnu5yyJg,MGkBnu5yyJg,MGkBnu5yyJg,UOA9wpXJjsk,UOA9wpXJjsk,UOA9wpXJjsk,ZbpID47B_XE,ZbpID47B_XE,ZbpID47B_XE,NohfbahOqrM,NohfbahOqrM,NohfbahOqrM,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,43CNzte_Alw,43CNzte_Alw,43CNzte_Alw,pkkiT6_XOAM,pkkiT6_XOAM,pkkiT6_XOAM,dYcjdwMI4lk,dYcjdwMI4lk,dYcjdwMI4lk,UePZY_t5Zuk,UePZY_t5Zuk,UePZY_t5Zuk,WUE7dLuaZ7c,WUE7dLuaZ7c,WUE7dLuaZ7c,nmGGsYcKFOk,nmGGsYcKFOk,nmGGsYcKFOk,iLJg6UP0y_8,iLJg6UP0y_8,iLJg6UP0y_8,oewqQ6RkNT8,oewqQ6RkNT8,oewqQ6RkNT8,j4pZ3fbVnyA,j4pZ3fbVnyA,j4pZ3fbVnyA,3TI4Ce_ckO0,3TI4Ce_ckO0,3TI4Ce_ckO0,MJ_rs47qCvs,MJ_rs47qCvs,MJ_rs47qCvs,0FNEr8hjojw,0FNEr8hjojw,0FNEr8hjojw,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,tQHd4ihEmyE,tQHd4ihEmyE,tQHd4ihEmyE,T_NqPS7dR58,T_NqPS7dR58,T_NqPS7dR58,zlBTmitsCxM,zlBTmitsCxM,zlBTmitsCxM,7Y8WyNm70Pg,7Y8WyNm70Pg,7Y8WyNm70Pg,PZRH71eCet0,PZRH71eCet0,PZRH71eCet0,dYcjdwMI4lk,dYcjdwMI4lk,dYcjdwMI4lk,ldFpIdQPQb4,ldFpIdQPQb4,ldFpIdQPQb4,PMk6cys0bhE,PMk6cys0bhE,PMk6cys0bhE,rpduz0gCxuY,rpduz0gCxuY,rpduz0gCxuY,g3_oBe1MHsw,g3_oBe1MHsw,g3_oBe1MHsw,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,AvuYJBvguFE,AvuYJBvguFE,AvuYJBvguFE,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,UbIX71sXnSY,UbIX71sXnSY,UbIX71sXnSY,p5R560qsj60,p5R560qsj60,p5R560qsj60,WlJ12LESGP0,WlJ12LESGP0,WlJ12LESGP0,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,INLyfPPwtPY,INLyfPPwtPY,INLyfPPwtPY,FtX0SOorrFI,FtX0SOorrFI,FtX0SOorrFI,_UbazGVQk8U,_UbazGVQk8U,_UbazGVQk8U,JwPfmMTxNIw,JwPfmMTxNIw,JwPfmMTxNIw,zLfRr2C6Wl0,zLfRr2C6Wl0,zLfRr2C6Wl0,d2BoLMQuWS4,d2BoLMQuWS4,d2BoLMQuWS4,wnZJZQWh0g4,wnZJZQWh0g4,wnZJZQWh0g4,B84gZT9eeA8,B84gZT9eeA8,B84gZT9eeA8,hGqNEeYeMW4,hGqNEeYeMW4,hGqNEeYeMW4,jrcO1W0MrXo,jrcO1W0MrXo,jrcO1W0MrXo,SO2fR1cvuSk,SO2fR1cvuSk,SO2fR1cvuSk,07VG_1Put2U,07VG_1Put2U,07VG_1Put2U,AFi3OjLEqDg,AFi3OjLEqDg,AFi3OjLEqDg,M1fjKibRZdQ,M1fjKibRZdQ,M1fjKibRZdQ,hXKUCEmvcyo,hXKUCEmvcyo,hXKUCEmvcyo,495pqHj46Ms,495pqHj46Ms,495pqHj46Ms,fFvRj3XYH_Y,fFvRj3XYH_Y,fFvRj3XYH_Y,c3kFCnzQdHs,c3kFCnzQdHs,c3kFCnzQdHs,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,5k8KuTNoJ8M,5k8KuTNoJ8M,5k8KuTNoJ8M,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,qYaNFvimZts,qYaNFvimZts,qYaNFvimZts,WlJ12LESGP0,WlJ12LESGP0,WlJ12LESGP0,cHlx3vmSIVY,cHlx3vmSIVY,cHlx3vmSIVY,PxlJS651y2o,PxlJS651y2o,PxlJS651y2o,plOs9Rlvsig,plOs9Rlvsig,plOs9Rlvsig,4QNQZ6bdDaU,4QNQZ6bdDaU,4QNQZ6bdDaU,hGqNEeYeMW4,hGqNEeYeMW4,hGqNEeYeMW4,xrh1AQ_zjPM,xrh1AQ_zjPM,xrh1AQ_zjPM,UkItaPRB380,UkItaPRB380,UkItaPRB380,9iKrmuVJLhY,9iKrmuVJLhY,9iKrmuVJLhY,iLJg6UP0y_8,iLJg6UP0y_8,iLJg6UP0y_8,kYW6xwvHZVw,kYW6xwvHZVw,kYW6xwvHZVw,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,S9own9V3_1I,S9own9V3_1I,S9own9V3_1I,yBCcOcYgVzU,yBCcOcYgVzU,yBCcOcYgVzU,Nd_cHwX1dT0,Nd_cHwX1dT0,Nd_cHwX1dT0,QJk8xxoutLg,QJk8xxoutLg,QJk8xxoutLg,LTctc5YSNko,LTctc5YSNko,LTctc5YSNko,UHVDHXhIxk8,UHVDHXhIxk8,UHVDHXhIxk8,acVRitTW2fU,acVRitTW2fU,acVRitTW2fU,jP8ee6ulenE,jP8ee6ulenE,jP8ee6ulenE,fvBhWnNcmtY,fvBhWnNcmtY,fvBhWnNcmtY,R6i6lAqr6YY,R6i6lAqr6YY,R6i6lAqr6YY,AXsvJVlsjho,AXsvJVlsjho,AXsvJVlsjho,kwGCNTh9vew,kwGCNTh9vew,kwGCNTh9vew,XtVfO9Gl8xg,XtVfO9Gl8xg,XtVfO9Gl8xg,6WHB_ZsroyM,6WHB_ZsroyM,6WHB_ZsroyM,31gcY4zgSXU,31gcY4zgSXU,31gcY4zgSXU,88DEIY89icg,88DEIY89icg,88DEIY89icg,tQ3iQ8_Qb8A,tQ3iQ8_Qb8A,tQ3iQ8_Qb8A,b57L9dpq0Q4,b57L9dpq0Q4,b57L9dpq0Q4,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,IZ63ox6sO24,IZ63ox6sO24,IZ63ox6sO24,0PpksnCbmac,0PpksnCbmac,0PpksnCbmac,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,U4HIBDuiM1Y,U4HIBDuiM1Y,U4HIBDuiM1Y</t>
-  </si>
-  <si>
-    <t>241,241,241,381,5,1078,5,359,5,181,181,181,4581,4581,4581,97,97,97,893,893,893,1246,1246,1246,1723,1723,1723,429,429,429,1801,1801,1801,191,191,191,187,187,187,607,607,607,215,215,215,610,610,610,59,59,59,92,92,92,847,847,847,102,102,102,547,547,547,5,5,5,20385,20385,20385,659,659,659,1252,1252,1252,2564,2564,2564,425,425,425,1050,1050,1050,159,159,159,1405,1405,1405,836,836,836,246,246,246,2002,2002,2002,897,897,897,564,564,564,813,813,813,197,197,197,45,45,45,584,584,584,610,610,610,489,489,489,396,396,396,591,591,591,145,145,145,1345,1345,1345,653,653,653,504,504,504,486,486,486,1209,1209,1209,585,585,585,160,160,160,150,150,150,2068,2068,2068,2529,2529,2529,91,91,91,933,933,933,109,109,109,49,49,49,3751,3751,3751,77,77,77,771,771,771,317,317,317,2560,2560,2560,137,137,137,382,382,382,395,395,395,169,169,169,519,519,519,312,312,312,55,55,55,694,694,694,4,4,4,84,84,84,247,247,247,4,4,4,51,51,51,22,22,22,2400,2400,2400,864,864,864,2039,2039,2039,256,256,256,422,422,422,810,810,810,3521,3521,3521,2506,2506,2506,871,871,871,59,59,59,134,134,134,122,122,122,2238,2238,2238,1936,1936,1936,288,288,288,612,612,612,1102,1102,1102,287,287,287,688,688,688,1046,1046,1046,121,121,121,20,20,20,87,87,87,151,151,151,1557,1557,1557,223,223,223,991,991,991,513,513,513,1838,1838,1838,556,556,556,2314,2314,2314,771,771,771,203,203,203,1930,1930,1930,37,37,37,542,542,542,123,123,123,351,351,351,547,547,547,566,566,566,55,55,55,327,327,327,587,587,587,452,452,452,1784,1784,1784,280,280,280,822,822,822,79,79,79,74,74,74,294,294,294,3271,3271,3271,4445,4445,4445,118,118,118,1960,1960,1960,3396,3396,3396,12714,12714,12714,168,168,168,60,60,60,34,34,34,73,73,73,10,10,10,27,27,27,43,43,43,15,15,15,152,152,152,401,401,401,961,961,961,1437,1437,1437,555,555,555,1004,1004,1004,1104,1104,1104,3234,3234,3234,685,685,685,995,995,995,574,574,574,732,732,732,819,819,819,549,549,549,341,341,341,2736,2736,2736,63,63,63,82,82,82,2100,2100,2100,261,261,261,1590,1590,1590,209,209,209,4341,4341,4341,384,384,384,0,0,0,245,245,245,206,206,206,89,89,89,385,385,385,58,58,58,700,700,700,261,261,261,4792,4792,4792,1043,1043,1043,682,682,682,3719,3719,3719,658,658,658,28,28,28,349,349,349,9178,9178,9178,168,168,168,51,51,51,379,379,379,48,48,48,94,94,94,141,141,141,145,145,145,48,48,48,35,35,35,2783,2783,2783,390,390,390,4538,4538,4538,1167,1167,1167,630,630,630,3436,3436,3436,4331,4331,4331,18,18,18,209,209,209,138,138,138,566,566,566,1943,1943,1943,27,27,27,342,342,342,47,47,47,337,337,337,292,292,292,3399,3399,3399,3753,3753,3753,75,75,75,285,285,285,5040,5040,5040,186,186,186,33,33,33,328,328,328,1562,1562,1562,207,207,207,1343,1343,1343,22869,22869,22869,69,69,69,1434,1434,1434,886,886,886,1203,1203,1203,4383,4383,4383,202,202,202,330,330,330,89,89,89,121,121,121,246,246,246,1333,1333,1333,15622,15622,15622,1587,1587,1587,138,138,138,1184,1184,1184,318,318,318,138,138,138,15,15,15,71,71,71,919,919,919,954,954,954,736,736,736,397,397,397,1461,1461,1461,563,563,563,1470,1470,1470,289,289,289,367,367,367,548,548,548,63,63,63,1085,1085,1085,3483,3483,3483,124,124,124,1193,1193,1193,95,95,95,1247,1247,1247,74,74,74,746,746,746,812,812,812,125,125,125,2446,2446,2446,395,395,395,17188,17188,17188,462,462,462,636,636,636,980,980,980,313,313,313,1079,1079,1079,383,383,383,45,45,45,182,182,182,179,179,179,413,413,413,215,215,215,77,77,77,66,66,66,227,227,227,28,28,28,33,33,33,221,221,221,621,621,621,539,539,539,5815,5815,5815,1891,1891,1891,3121,3121,3121,132,132,132,2444,2444,2444,1695,1695,1695,486,486,486,727,727,727,14,14,14,911,911,911,131,131,131,160,160,160,63,63,63,1651,1651,1651,85,85,85,795,795,795,2340,2340,2340,649,649,649,200,200,200,98,98,98,80,80,80,71,71,71,2770,2770,2770,741,741,741,45,45,45,725,725,725,326,326,326,327,327,327,81,81,81,27,27,27,219,219,219,169,169,169,439,439,439,898,898,898,16441,16441,16441,2527,2527,2527,1067,1067,1067,2228,2228,2228,224,224,224</t>
-  </si>
-  <si>
-    <t>243,243,243,383,9,1079,9,361,9,184,184,184,4583,4583,4583,99,99,99,895,895,895,1248,1248,1248,1725,1725,1725,431,431,431,1802,1802,1802,193,193,193,189,189,189,610,610,610,217,217,217,612,612,612,61,61,61,95,95,95,849,849,849,104,104,104,549,549,549,7,7,7,20387,20387,20387,662,662,662,1255,1255,1255,2566,2566,2566,426,426,426,1052,1052,1052,161,161,161,1406,1406,1406,838,838,838,248,248,248,2004,2004,2004,898,898,898,566,566,566,814,814,814,199,199,199,47,47,47,587,587,587,612,612,612,491,491,491,398,398,398,593,593,593,148,148,148,1346,1346,1346,655,655,655,506,506,506,488,488,488,1211,1211,1211,587,587,587,162,162,162,152,152,152,2069,2069,2069,2531,2531,2531,93,93,93,936,936,936,111,111,111,51,51,51,3753,3753,3753,79,79,79,773,773,773,318,318,318,2562,2562,2562,139,139,139,384,384,384,396,396,396,171,171,171,521,521,521,314,314,314,57,57,57,696,696,696,6,6,6,86,86,86,249,249,249,6,6,6,53,53,53,24,24,24,2402,2402,2402,866,866,866,2041,2041,2041,258,258,258,424,424,424,812,812,812,3523,3523,3523,2508,2508,2508,873,873,873,61,61,61,136,136,136,124,124,124,2241,2241,2241,1938,1938,1938,291,291,291,614,614,614,1104,1104,1104,289,289,289,689,689,689,1047,1047,1047,122,122,122,23,23,23,90,90,90,153,153,153,1558,1558,1558,225,225,225,993,993,993,516,516,516,1840,1840,1840,557,557,557,2316,2316,2316,773,773,773,205,205,205,1931,1931,1931,39,39,39,544,544,544,125,125,125,353,353,353,548,548,548,568,568,568,57,57,57,329,329,329,588,588,588,454,454,454,1786,1786,1786,281,281,281,824,824,824,81,81,81,78,78,78,296,296,296,3272,3272,3272,4447,4447,4447,120,120,120,1963,1963,1963,3398,3398,3398,12716,12716,12716,170,170,170,62,62,62,36,36,36,75,75,75,12,12,12,29,29,29,44,44,44,17,17,17,153,153,153,403,403,403,963,963,963,1439,1439,1439,557,557,557,1005,1005,1005,1106,1106,1106,3235,3235,3235,687,687,687,997,997,997,576,576,576,733,733,733,821,821,821,551,551,551,344,344,344,2737,2737,2737,65,65,65,83,83,83,2102,2102,2102,263,263,263,1592,1592,1592,210,210,210,4344,4344,4344,386,386,386,2,2,2,248,248,248,208,208,208,91,91,91,387,387,387,60,60,60,702,702,702,264,264,264,4794,4794,4794,1046,1046,1046,684,684,684,3721,3721,3721,660,660,660,30,30,30,351,351,351,9180,9180,9180,171,171,171,53,53,53,381,381,381,50,50,50,96,96,96,143,143,143,147,147,147,50,50,50,36,36,36,2786,2786,2786,391,391,391,4540,4540,4540,1169,1169,1169,632,632,632,3438,3438,3438,4333,4333,4333,20,20,20,212,212,212,140,140,140,568,568,568,1945,1945,1945,29,29,29,344,344,344,49,49,49,339,339,339,294,294,294,3401,3401,3401,3756,3756,3756,77,77,77,287,287,287,5042,5042,5042,188,188,188,34,34,34,330,330,330,1564,1564,1564,209,209,209,1344,1344,1344,22871,22871,22871,71,71,71,1436,1436,1436,888,888,888,1205,1205,1205,4385,4385,4385,204,204,204,332,332,332,91,91,91,123,123,123,247,247,247,1335,1335,1335,15623,15623,15623,1590,1590,1590,140,140,140,1186,1186,1186,320,320,320,139,139,139,16,16,16,73,73,73,921,921,921,956,956,956,738,738,738,398,398,398,1463,1463,1463,565,565,565,1472,1472,1472,291,291,291,369,369,369,549,549,549,65,65,65,1087,1087,1087,3486,3486,3486,126,126,126,1194,1194,1194,97,97,97,1249,1249,1249,77,77,77,748,748,748,814,814,814,127,127,127,2448,2448,2448,397,397,397,17190,17190,17190,464,464,464,637,637,637,982,982,982,317,317,317,1080,1080,1080,385,385,385,47,47,47,184,184,184,180,180,180,414,414,414,217,217,217,79,79,79,68,68,68,228,228,228,30,30,30,35,35,35,222,222,222,623,623,623,541,541,541,5818,5818,5818,1893,1893,1893,3123,3123,3123,134,134,134,2446,2446,2446,1699,1699,1699,488,488,488,730,730,730,16,16,16,913,913,913,133,133,133,162,162,162,65,65,65,1653,1653,1653,87,87,87,797,797,797,2342,2342,2342,651,651,651,202,202,202,100,100,100,81,81,81,72,72,72,2772,2772,2772,743,743,743,47,47,47,727,727,727,328,328,328,329,329,329,82,82,82,29,29,29,220,220,220,172,172,172,442,442,442,900,900,900,16443,16443,16443,2530,2530,2530,1069,1069,1069,2231,2231,2231,226,226,226</t>
+    <t>KdRXbdcP670,KdRXbdcP670,KdRXbdcP670,yxZatelPeNo,Q-8I-uMUMYA,QbgH8_CzBOg,Q-8I-uMUMYA,6g6ZsyaJs8Q,Q-8I-uMUMYA,PMk6cys0bhE,Q-8I-uMUMYA,QAjt9liE_a4,Q-8I-uMUMYA,PMk6cys0bhE,Q-8I-uMUMYA,zmvPgBfIQns,zmvPgBfIQns,zmvPgBfIQns,hwyW7oCsvBI,Q-8I-uMUMYA,xBB1aAMS2i4,Q-8I-uMUMYA,sJf0tb4QeLQ,Q-8I-uMUMYA,PYYAjEfu7dM,Q-8I-uMUMYA,6sXgJSQJxJo,Q-8I-uMUMYA,Ewyhf2C7Z50,Q-8I-uMUMYA,8tOv2M9OgsQ,8tOv2M9OgsQ,8tOv2M9OgsQ,mFLEsNksk7s,Q-8I-uMUMYA,mpmsrqhPod0,Q-8I-uMUMYA,45l1u6Hu0u8,Q-8I-uMUMYA,dRx0YHaeQso,Q-8I-uMUMYA,sCynyywldzA,Q-8I-uMUMYA,8suYePtSmVk,Q-8I-uMUMYA,b5W6WyOnkY0,b5W6WyOnkY0,b5W6WyOnkY0,sJf0tb4QeLQ,Q-8I-uMUMYA,WNSsiN814T4,Q-8I-uMUMYA,ULzMDhOYXDI,Q-8I-uMUMYA,C7AJVQLst1o,Q-8I-uMUMYA,UbIX71sXnSY,Q-8I-uMUMYA,NorTlAni4pc,Q-8I-uMUMYA,USIYNJg2qSw,USIYNJg2qSw,USIYNJg2qSw,EZMgSCfbiGs,Q-8I-uMUMYA,dMYF3M820Vg,Q-8I-uMUMYA,xjEWNSgWqBo,Q-8I-uMUMYA,jZDogzNBKkg,Q-8I-uMUMYA,mXMXTszg_XE,Q-8I-uMUMYA,7iuvbDJa20Q,Q-8I-uMUMYA,67KX1u7gfIo,67KX1u7gfIo,67KX1u7gfIo,qekbyVCJsIk,Q-8I-uMUMYA,J34v_nNRU7c,Q-8I-uMUMYA,0ArfVe66RNE,Q-8I-uMUMYA,6aZHsfF1kVw,Q-8I-uMUMYA,P4zf2_zK2uQ,Q-8I-uMUMYA,s6PAUQJOaWc,Q-8I-uMUMYA,WKGIqnMJwL8,WKGIqnMJwL8,WKGIqnMJwL8,DniD4L9cACc,Q-8I-uMUMYA,cvsjmYm1mAE,Q-8I-uMUMYA,XjxvYViuRQs,Q-8I-uMUMYA,jP5RIermNno,Q-8I-uMUMYA,xqiQ_4a_Xio,Q-8I-uMUMYA,yB6vJCGJcrU,Q-8I-uMUMYA,H2KD1RMaZFQ,H2KD1RMaZFQ,H2KD1RMaZFQ,jdwoLGhYtn0,Q-8I-uMUMYA,NohfbahOqrM,Q-8I-uMUMYA,QIf2cHz5W4g,Q-8I-uMUMYA,TKZnf8bPjbI,Q-8I-uMUMYA,UBrFC9e5zlo,Q-8I-uMUMYA,FdOY6qHAkDs,Q-8I-uMUMYA,BaSWNWnojdU,BaSWNWnojdU,BaSWNWnojdU,nj83zeeJXQo,Q-8I-uMUMYA,J6MDJ1fQnPQ,Q-8I-uMUMYA,gKvIVk9KP2c,Q-8I-uMUMYA,XrprY3B2uPQ,Q-8I-uMUMYA,iIdpeR6GxTo,Q-8I-uMUMYA,jP5RIermNno,Q-8I-uMUMYA,_35G9xjZSz0,_35G9xjZSz0,_35G9xjZSz0,UuN4OgYiJQQ,Q-8I-uMUMYA,NV0Lln1fFsw,Q-8I-uMUMYA,bJvH3EQdtBU,Q-8I-uMUMYA,V2yVCi7fzsg,Q-8I-uMUMYA,atTtYnTJvZo,Q-8I-uMUMYA,qLZBEykyoMs,Q-8I-uMUMYA,aMxhCOn1xZs,aMxhCOn1xZs,aMxhCOn1xZs,58E4HGVFuzg,Q-8I-uMUMYA,robgEk58nx4,Q-8I-uMUMYA,MDjYkqySWDk,Q-8I-uMUMYA,q2FLGLlrCEc,Q-8I-uMUMYA,udKPq5M1WF4,Q-8I-uMUMYA,t1Sa9YL7GUQ,Q-8I-uMUMYA,OdndAvGx2AI,OdndAvGx2AI,OdndAvGx2AI,tQ3iQ8_Qb8A,Q-8I-uMUMYA,N8wLN1kVbs0,Q-8I-uMUMYA,bXJsYZRGyzc,Q-8I-uMUMYA,08WUwSic5MY,Q-8I-uMUMYA,cfwSFfrDQN0,Q-8I-uMUMYA,6KVvJ7qSBvM,Q-8I-uMUMYA,ImoHd_JGqN8,ImoHd_JGqN8,ImoHd_JGqN8,bJ87T0krCzI,Q-8I-uMUMYA,5DVopo30jf8,Q-8I-uMUMYA,SbLquMQv4Sg,Q-8I-uMUMYA,PoKixTm1NZc,Q-8I-uMUMYA,RnonPD87HxI,Q-8I-uMUMYA,WRbYdBlCTAQ,Q-8I-uMUMYA,1idPrF17UP0,1idPrF17UP0,1idPrF17UP0,HusEMfhYcA0,Q-8I-uMUMYA,bPutNPlyoqo,Q-8I-uMUMYA,pruDyt__jYs,Q-8I-uMUMYA,EZMgSCfbiGs,Q-8I-uMUMYA,k0mt1Uxqu4U,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,2rcJOKj3uRM,2rcJOKj3uRM,2rcJOKj3uRM,n9adVSbsvy4,Q-8I-uMUMYA,GgxTyeBgUrw,Q-8I-uMUMYA,8jmOuLksBJ0,Q-8I-uMUMYA,a5tAiFe2C0w,Q-8I-uMUMYA,mYdQSDPbaoE,Q-8I-uMUMYA,HqEGHcP413w,Q-8I-uMUMYA,mjdwFZ9EdL0,mjdwFZ9EdL0,mjdwFZ9EdL0,COlIItbPopY,Q-8I-uMUMYA,dYcjdwMI4lk,Q-8I-uMUMYA,Jm4F0NBLUZY,Q-8I-uMUMYA,SjHPYpxdcXo,Q-8I-uMUMYA,zdicxqAR9Do,Q-8I-uMUMYA,biRQ3PONAsY,Q-8I-uMUMYA,mRD6BmehmdY,mRD6BmehmdY,mRD6BmehmdY,wro74ypSW60,Q-8I-uMUMYA,EVZmDLBbQiY,Q-8I-uMUMYA,mZ2W1yKlANI,Q-8I-uMUMYA,pptfIJDVDeI,Q-8I-uMUMYA,JmTknWGnqM4,Q-8I-uMUMYA,_2LZo6dC6u8,Q-8I-uMUMYA,ZFf0M63bCwk,ZFf0M63bCwk,ZFf0M63bCwk,M7ROOKqquqs,Q-8I-uMUMYA,UbIX71sXnSY,Q-8I-uMUMYA,uWefyAigpqg,Q-8I-uMUMYA,j4pZ3fbVnyA,Q-8I-uMUMYA,WqDRKP8XFh8,Q-8I-uMUMYA,UbIX71sXnSY,Q-8I-uMUMYA,AJxVh7pLuZM,AJxVh7pLuZM,AJxVh7pLuZM,ma3IZcf5C3Q,Q-8I-uMUMYA,We_B3W2hn6U,Q-8I-uMUMYA,qxSzWseraQQ,Q-8I-uMUMYA,mYdQSDPbaoE,Q-8I-uMUMYA,wqAziYhui4I,Q-8I-uMUMYA,k1up2KLkuaM,Q-8I-uMUMYA,3dvvOo9u7PY,3dvvOo9u7PY,3dvvOo9u7PY,xDSbzVXrNxg,Q-8I-uMUMYA,ReoJnVK_IPU,Q-8I-uMUMYA,FtX0SOorrFI,Q-8I-uMUMYA,WB2jYe9y_Lk,Q-8I-uMUMYA,Qn1EZXHfBM0,Q-8I-uMUMYA,9MAPOxdsUAw,Q-8I-uMUMYA,fkJjMNzKq90,fkJjMNzKq90,fkJjMNzKq90,1RoZgb6vyBU,Q-8I-uMUMYA,1RoZgb6vyBU,Q-8I-uMUMYA,kyf3kITGk7o,Q-8I-uMUMYA,jgq74EEYOHc,Q-8I-uMUMYA,R6i6lAqr6YY,Q-8I-uMUMYA,rpduz0gCxuY,Q-8I-uMUMYA,xMt7OxvItgo,xMt7OxvItgo,xMt7OxvItgo,po3SMpTUHow,Q-8I-uMUMYA,prSrldgnIJE,Q-8I-uMUMYA,cidzH5XDfZU,Q-8I-uMUMYA,bBSmCgnYCUM,Q-8I-uMUMYA,of5VbXs4mHY,Q-8I-uMUMYA,Z0czr5G9r0s,Q-8I-uMUMYA,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,UBrFC9e5zlo,Q-8I-uMUMYA,tfzC9AvItfg,Q-8I-uMUMYA,2hZkrT8_z1w,Q-8I-uMUMYA,6pTV5xoPh3s,Q-8I-uMUMYA,ZEd4FcTaOBo,Q-8I-uMUMYA,lgxq9KNDuPQ,Q-8I-uMUMYA,5QhC0EVFVUc,5QhC0EVFVUc,5QhC0EVFVUc,HmAJGBgdBYE,Q-8I-uMUMYA,sZiISWrbCks,Q-8I-uMUMYA,dgwizCIccrY,Q-8I-uMUMYA,X7MUPbGm3A8,Q-8I-uMUMYA,wXPMglvtwJE,Q-8I-uMUMYA,C7AJVQLst1o,Q-8I-uMUMYA,v_0hNTyxzq8,v_0hNTyxzq8,v_0hNTyxzq8,mdNyTqKmEMs,Q-8I-uMUMYA,QAjt9liE_a4,Q-8I-uMUMYA,k2Gq3EgyVlU,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,4rOtQmuq5iE,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,6g6ZsyaJs8Q,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,F0uYZ4uI47w,Q-8I-uMUMYA,ZAtYUq0JR8Q,Q-8I-uMUMYA,TOb1h3hisMo,Q-8I-uMUMYA,ZAtYUq0JR8Q,Q-8I-uMUMYA,UbIX71sXnSY,UbIX71sXnSY,UbIX71sXnSY,Ip1lXhLbvfU,Q-8I-uMUMYA,N_Cn_DbIyzw,Q-8I-uMUMYA,MNCyjl4jaxY,Q-8I-uMUMYA,dKulgkMlEqY,Q-8I-uMUMYA,N3zGec15w58,Q-8I-uMUMYA,qeFJHjqPTsE,Q-8I-uMUMYA,KFlWdjC9rrg,KFlWdjC9rrg,KFlWdjC9rrg,6g6ZsyaJs8Q,Q-8I-uMUMYA,rl6XwyhuAVk,Q-8I-uMUMYA,Vi02nG18UxU,Q-8I-uMUMYA,KFlWdjC9rrg,Q-8I-uMUMYA,KFlWdjC9rrg,Q-8I-uMUMYA,loL9z89lf28,Q-8I-uMUMYA,yJuv9Eozp5A,yJuv9Eozp5A,yJuv9Eozp5A,i7zdY_p_MOk,Q-8I-uMUMYA,v1tjz6l7TGQ,Q-8I-uMUMYA,robgEk58nx4,Q-8I-uMUMYA,EmxRrMXp3UY,Q-8I-uMUMYA,nerAX4VUzNk,Q-8I-uMUMYA,OMs15LULCBc,Q-8I-uMUMYA,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,aJlmQ6FxG_I,Q-8I-uMUMYA,0D8AwsGlZTo,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,UBrFC9e5zlo,Q-8I-uMUMYA,1pJQnCkvV8c,Q-8I-uMUMYA,29oFPqndnQY,Q-8I-uMUMYA,jWK27FdHDnw,jWK27FdHDnw,jWK27FdHDnw,2z86k2Xm3Qc,Q-8I-uMUMYA,ppxo0ZUS4Hw,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,dfxnDL_grI4,Q-8I-uMUMYA,LgGiMKoCxlQ,Q-8I-uMUMYA,w84rXm6qHY0,Q-8I-uMUMYA,ADgBtBV3dIw,ADgBtBV3dIw,ADgBtBV3dIw,U0ErXeWmrL0,Q-8I-uMUMYA,ytOEchLsaeA,Q-8I-uMUMYA,92ySI5BWi2A,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,9ahkCAA5m1s,Q-8I-uMUMYA,FxhLqxciTxo,Q-8I-uMUMYA,ECjMB_WXJMw,ECjMB_WXJMw,ECjMB_WXJMw,SLiiU9eQxxc,Q-8I-uMUMYA,OPqBqioxLBI,Q-8I-uMUMYA,R6i6lAqr6YY,Q-8I-uMUMYA,USIYNJg2qSw,Q-8I-uMUMYA,JRhFqrIDklA,Q-8I-uMUMYA,cHlx3vmSIVY,Q-8I-uMUMYA,JGZbS1Xps5g,JGZbS1Xps5g,JGZbS1Xps5g,HsTpH1gBffM,Q-8I-uMUMYA,qxSzWseraQQ,Q-8I-uMUMYA,nerAX4VUzNk,Q-8I-uMUMYA,pHK4XUjBLJ8,Q-8I-uMUMYA,OtRjMVcQ2Rw,Q-8I-uMUMYA,Y_hORvIy45o,Q-8I-uMUMYA,GFT0u_Fa0l8,GFT0u_Fa0l8,GFT0u_Fa0l8,t35fwDbZyiQ,Q-8I-uMUMYA,SdQGv1yk72U,SdQGv1yk72U,SdQGv1yk72U,XRBb17aWENc,Q-8I-uMUMYA,wcmzSWj8ZNM,Q-8I-uMUMYA,9MAPOxdsUAw,Q-8I-uMUMYA,Y59nj9TICB8,Q-8I-uMUMYA,ZtXOvo4RwN4,Q-8I-uMUMYA,q7KSoirGDKI,Q-8I-uMUMYA,1RoZgb6vyBU,1RoZgb6vyBU,1RoZgb6vyBU,yB6vJCGJcrU,Q-8I-uMUMYA,O_O6Mx732h4,Q-8I-uMUMYA,ceNbPWbPmrk,Q-8I-uMUMYA,1RoZgb6vyBU,Q-8I-uMUMYA,7gqTBZkI1WU,Q-8I-uMUMYA,1RoZgb6vyBU,Q-8I-uMUMYA,gMtjvxFFMEA,gMtjvxFFMEA,gMtjvxFFMEA,3Bk_4S4fr7A,Q-8I-uMUMYA,XMdqKpOYTHA,Q-8I-uMUMYA,XzWtvDWcXT4,Q-8I-uMUMYA,1fBOatf7zr0,Q-8I-uMUMYA,RPNvUbJPnvM,Q-8I-uMUMYA,44dvSB31mds,Q-8I-uMUMYA,PYYAjEfu7dM,PYYAjEfu7dM,PYYAjEfu7dM,J4JZY2Ia2xM,Q-8I-uMUMYA,DTHHxypdc8Q,Q-8I-uMUMYA,nerAX4VUzNk,Q-8I-uMUMYA,5KPYbzW6dTw,5KPYbzW6dTw,5KPYbzW6dTw,hGqNEeYeMW4,Q-8I-uMUMYA,EvOlhNlCEfs,Q-8I-uMUMYA,mZjgT99M9ns,Q-8I-uMUMYA,KVBbfefCaYw,Q-8I-uMUMYA,dD3iAF6bOcg,Q-8I-uMUMYA,sqcLxV7UYf8,Q-8I-uMUMYA,C5X3XNhAcEM,C5X3XNhAcEM,C5X3XNhAcEM,ZudZFdRJFTU,Q-8I-uMUMYA,0e1CqWLg4NQ,Q-8I-uMUMYA,JGZbS1Xps5g,Q-8I-uMUMYA,WDXy9tn1_Qg,Q-8I-uMUMYA,uR4uhf0o0Mk,Q-8I-uMUMYA,sqcLxV7UYf8,Q-8I-uMUMYA,tMD8dADngGY,tMD8dADngGY,tMD8dADngGY,kZSGion29eo,Q-8I-uMUMYA,NTotj6foXYc,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,po3SMpTUHow,Q-8I-uMUMYA,53qGin0_oOs,Q-8I-uMUMYA,4hoixvDtWUU,Q-8I-uMUMYA,Du4gu40upNw,Du4gu40upNw,Du4gu40upNw,QAjt9liE_a4,Q-8I-uMUMYA,jy_uFRsyaD8,Q-8I-uMUMYA,R4Q1cNbNKU0,Q-8I-uMUMYA,BR0mUnPOrNk,Q-8I-uMUMYA,OKmXet1mGoY,Q-8I-uMUMYA,n2K8o3L5Vkk,Q-8I-uMUMYA,aXLbVZtJIe8,aXLbVZtJIe8,aXLbVZtJIe8,P9u2BkJamhg,Q-8I-uMUMYA,ogMOoVCSvco,Q-8I-uMUMYA,vNTSrcgVMlM,Q-8I-uMUMYA,CjC_Qj21dFA,Q-8I-uMUMYA,mB6PXvixSRk,Q-8I-uMUMYA,sKcDNHzLIZ8,Q-8I-uMUMYA,1JRauSMWBww,1JRauSMWBww,1JRauSMWBww,v1tjz6l7TGQ,v1tjz6l7TGQ,v1tjz6l7TGQ,mXebVgpyeEE,Q-8I-uMUMYA,PtA2EEW_K1o,Q-8I-uMUMYA,98ItexLz_tc,Q-8I-uMUMYA,zMXwa3IaY6Q,Q-8I-uMUMYA,5k8KuTNoJ8M,Q-8I-uMUMYA,lfJzUF2VujM,Q-8I-uMUMYA,OKmXet1mGoY,OKmXet1mGoY,OKmXet1mGoY,bJ87T0krCzI,Q-8I-uMUMYA,CSgYEXM_Ibk,Q-8I-uMUMYA,4NNIn0HGnzs,Q-8I-uMUMYA,olV0Z7BJ3XE,Q-8I-uMUMYA,IvbdQ5TPBuU,Q-8I-uMUMYA,CSgYEXM_Ibk,Q-8I-uMUMYA,8DXCPz27VRY,8DXCPz27VRY,8DXCPz27VRY,cOm7mYpVlOk,Q-8I-uMUMYA,D9EOuLkiTcA,Q-8I-uMUMYA,JFYndtWLKKY,Q-8I-uMUMYA,RZoVZaHwJcc,Q-8I-uMUMYA,ppwn1458dW4,Q-8I-uMUMYA,H_lUNb7_7ts,Q-8I-uMUMYA,OMs15LULCBc,OMs15LULCBc,OMs15LULCBc,OMs15LULCBc,Q-8I-uMUMYA</t>
+  </si>
+  <si>
+    <t>46,46,46,404,5,568,5,133,5,786,5,14213,5,757,5,2949,2949,2949,168,5,426,5,1485,5,104,5,523,5,1009,5,479,479,479,1134,5,140,5,200,5,31,5,1050,5,887,5,193,193,193,1849,5,515,5,589,5,637,5,1489,5,37,5,1553,1553,1553,4902,5,60,5,479,5,81,5,1111,5,9,5,484,484,484,173,5,536,5,681,5,311,5,151,5,804,5,192,192,192,317,5,165,5,531,5,1255,5,310,5,54,5,260,260,260,447,5,1212,5,173,5,4,5,4262,5,36,5,139,139,139,258,5,127,5,359,5,862,5,812,5,1815,5,416,416,416,28,5,2341,5,792,5,1956,5,81,5,200,5,81,81,81,127,5,514,5,246,5,701,5,500,5,32,5,775,775,775,90,5,40,5,138,5,210,5,29,5,48,5,1509,1509,1509,500,5,143,5,7,5,195,5,497,5,725,5,61,61,61,104,5,1426,5,994,5,3700,5,118,5,220,5,53,53,53,169,5,6,5,383,5,277,5,635,5,45,5,44,44,44,468,5,889,5,74,5,204,5,50,5,236,5,186,186,186,592,5,252,5,706,5,101,5,210,5,1144,5,357,357,357,260,5,548,5,121,5,165,5,783,5,1787,5,125,125,125,35,5,441,5,1155,5,294,5,461,5,5064,5,330,330,330,441,5,50,5,713,5,1416,5,415,5,958,5,962,962,962,3956,5,3952,5,42,5,36,5,7,5,1109,5,417,417,417,1334,5,286,5,433,5,81,5,353,5,125,5,15551,15551,15551,2480,5,483,5,154,5,920,5,385,5,375,5,59,59,59,1043,5,221,5,538,5,87,5,365,5,343,5,386,386,386,10919,5,3234,5,371,5,2559,5,524,5,14655,5,17024,17024,17024,2525,5,981,5,3905,5,3,5,78,5,34,5,1526,1526,1526,456,5,9,5,5780,5,55,5,160,5,241,5,249,249,249,695,5,6,5,346,5,216,5,374,5,58,5,132,132,132,735,5,2403,5,2642,5,3922,5,75,5,85,5,11988,11988,11988,290,5,474,5,7029,5,4248,5,105,5,16,5,266,266,266,219,5,142,5,2830,5,34,5,507,5,622,5,422,422,422,38,5,1026,5,105,5,1893,5,409,5,263,5,460,460,460,179,5,679,5,722,5,991,5,2090,5,1117,5,58,58,58,85,5,1177,5,834,5,141,5,249,5,689,5,15,15,15,4167,5,0,0,0,2387,5,849,5,493,5,483,5,39,5,355,5,3418,3418,3418,82,5,225,5,11,5,3234,5,89,5,3465,5,11,11,11,390,5,268,5,83,5,158,5,232,5,2435,5,1075,1075,1075,171,5,353,5,628,5,45,45,45,439,5,855,5,515,5,87,5,304,5,256,5,583,583,583,135,5,499,5,212,5,171,5,222,5,970,5,4,4,4,114,5,4,5,15157,5,795,5,4,5,665,5,759,759,759,268,5,165,5,6708,5,18,5,279,5,363,5,635,635,635,2573,5,488,5,1760,5,318,5,487,5,1035,5,2028,2028,2028,2359,2359,2359,17,5,45,5,574,5,286,5,625,5,41,5,1093,1093,1093,506,5,1078,5,94,5,2093,5,168,5,955,5,175,175,175,615,5,136,5,142,5,477,5,290,5,57,5,96,96,96,719,5</t>
+  </si>
+  <si>
+    <t>48,48,48,406,9,571,9,135,9,789,9,14214,9,759,9,2951,2951,2951,170,9,428,9,1488,9,105,9,525,9,1011,9,481,481,481,1136,9,141,9,202,9,33,9,1052,9,889,9,195,195,195,1852,9,517,9,591,9,639,9,1492,9,39,9,1555,1555,1555,4904,9,62,9,481,9,83,9,1113,9,11,9,487,487,487,176,9,538,9,683,9,313,9,153,9,806,9,194,194,194,319,9,168,9,534,9,1257,9,313,9,56,9,262,262,262,449,9,1214,9,177,10,6,9,4264,9,38,9,141,141,141,260,9,129,9,361,9,864,9,814,9,1816,9,418,418,418,30,9,2344,9,795,9,1959,9,83,9,202,9,84,84,84,129,9,516,9,247,9,703,9,502,9,34,9,777,777,777,93,9,42,9,140,9,212,9,32,9,50,9,1511,1511,1511,502,9,145,9,10,9,197,9,499,9,727,9,63,63,63,106,9,1428,9,996,9,3702,9,120,9,222,9,55,55,55,171,9,8,9,385,9,279,9,637,9,47,9,46,46,46,470,9,890,9,76,9,207,9,53,9,238,9,188,188,188,594,9,254,9,708,9,103,9,211,9,1146,9,360,360,360,262,9,550,9,123,9,167,9,786,9,1789,9,127,127,127,37,9,443,9,1157,9,295,9,463,9,5066,9,332,332,332,443,9,52,9,715,9,1418,9,418,9,960,9,964,964,964,3958,9,3954,9,44,9,37,9,10,9,1111,9,420,420,420,1336,9,288,9,436,9,84,9,355,9,127,9,15553,15553,15553,2482,9,486,9,156,9,921,9,387,9,378,9,61,61,61,1045,9,223,9,540,9,89,9,367,9,344,9,388,388,388,10921,9,3236,9,374,9,2562,9,528,10,14657,9,17026,17026,17026,2528,9,983,9,3907,9,4,9,80,9,36,9,1529,1529,1529,459,9,11,9,5784,10,57,9,162,9,243,9,252,252,252,697,9,7,9,348,9,218,9,376,9,60,9,134,134,134,737,9,2405,9,2644,9,3924,9,77,9,87,9,11990,11990,11990,292,9,476,9,7031,9,4250,9,106,9,18,9,268,268,268,222,9,144,9,2832,9,36,9,509,9,623,9,424,424,424,40,9,1028,9,107,9,1895,9,411,9,264,9,462,462,462,181,9,681,9,724,9,993,9,2092,9,1119,9,60,60,60,88,9,1179,9,836,9,143,9,251,9,692,9,18,18,18,4169,9,2,2,2,2389,9,851,9,495,9,485,9,41,9,357,9,3419,3419,3419,85,9,227,9,13,9,3236,9,94,11,3467,9,13,13,13,391,9,270,9,86,9,160,9,235,9,2437,9,1077,1077,1077,173,9,356,9,631,9,47,47,47,440,9,857,9,518,9,89,9,306,9,259,9,585,585,585,137,9,501,9,214,9,174,9,225,9,973,9,6,6,6,116,9,6,9,15158,9,797,9,6,9,667,9,762,762,762,269,9,167,9,6711,9,19,9,281,9,367,10,638,638,638,2576,9,490,9,1762,9,320,9,489,9,1037,9,2030,2030,2030,2361,2361,2361,19,9,47,9,576,9,288,9,628,9,43,9,1095,1095,1095,508,9,1080,9,97,9,2095,9,171,9,956,9,177,177,177,617,9,138,9,144,9,478,9,292,9,59,9,98,98,98,722,9</t>
   </si>
 </sst>
 </file>
